--- a/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WMS\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X8 Store\WMS\Document\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,15 +163,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,30 +495,30 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="6" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -538,50 +543,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X8 Store\WMS\Document\2.Design\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195386B4-86FF-4554-8245-3B0C1CD37C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +42,6 @@
     <t>Loại GD</t>
   </si>
   <si>
-    <t>Người tạo</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${items}" var="item" varStatus="status"&gt;</t>
   </si>
   <si>
@@ -68,24 +66,27 @@
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
-    <t>Khách hàng</t>
-  </si>
-  <si>
     <t>${item.partnerName}</t>
+  </si>
+  <si>
+    <t>Khách hàng/ Đối tác</t>
+  </si>
+  <si>
+    <t>Thời gian thực hiện</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -93,7 +94,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +102,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +110,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,28 +156,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,102 +498,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="43.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195386B4-86FF-4554-8245-3B0C1CD37C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7A393-F181-498E-AABB-3BC6432F5F42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Danh sách giao dịch từ ${startDate} - ${endDate}</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>${item.description}</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,6 +191,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,24 +506,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -527,7 +535,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -549,8 +557,11 @@
       <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -560,8 +571,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -583,8 +595,11 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,6 +609,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7A393-F181-498E-AABB-3BC6432F5F42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9ADEC1-78B2-4FFC-8746-B931A5535057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Danh sách giao dịch từ ${startDate} - ${endDate}</t>
   </si>
@@ -69,9 +69,6 @@
     <t>${item.partnerName}</t>
   </si>
   <si>
-    <t>Khách hàng/ Đối tác</t>
-  </si>
-  <si>
     <t>Thời gian thực hiện</t>
   </si>
   <si>
@@ -82,6 +79,27 @@
   </si>
   <si>
     <t>${item.description}</t>
+  </si>
+  <si>
+    <t>Đối tác gửi hàng</t>
+  </si>
+  <si>
+    <t>Khách hàng nhận</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Mã yêu cầu</t>
+  </si>
+  <si>
+    <t>${item.transMoneyTotal}</t>
+  </si>
+  <si>
+    <t>${item.orderCode}</t>
+  </si>
+  <si>
+    <t>${item.receiveName}</t>
   </si>
 </sst>
 </file>
@@ -162,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,10 +206,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,36 +527,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -546,22 +573,31 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,11 +605,14 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -587,19 +626,28 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -607,14 +655,18 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>